--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H2">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I2">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J2">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N2">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O2">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P2">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q2">
-        <v>259.4964843059042</v>
+        <v>220.6720907784</v>
       </c>
       <c r="R2">
-        <v>2335.468358753138</v>
+        <v>1986.0488170056</v>
       </c>
       <c r="S2">
-        <v>0.02277596545539762</v>
+        <v>0.02450536899268648</v>
       </c>
       <c r="T2">
-        <v>0.02277596545539762</v>
+        <v>0.02450536899268648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H3">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I3">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J3">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.709383</v>
       </c>
       <c r="O3">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P3">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q3">
-        <v>86.12564877860143</v>
+        <v>78.18314046259499</v>
       </c>
       <c r="R3">
-        <v>775.1308390074128</v>
+        <v>703.648264163355</v>
       </c>
       <c r="S3">
-        <v>0.007559234594842267</v>
+        <v>0.008682143261908413</v>
       </c>
       <c r="T3">
-        <v>0.007559234594842267</v>
+        <v>0.008682143261908413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H4">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I4">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J4">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N4">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O4">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P4">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q4">
-        <v>141.9387969545855</v>
+        <v>80.16359505124501</v>
       </c>
       <c r="R4">
-        <v>1277.44917259127</v>
+        <v>721.4723554612051</v>
       </c>
       <c r="S4">
-        <v>0.0124579457978606</v>
+        <v>0.00890207035054448</v>
       </c>
       <c r="T4">
-        <v>0.0124579457978606</v>
+        <v>0.00890207035054448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H5">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I5">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J5">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N5">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O5">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P5">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q5">
-        <v>1111.751080380744</v>
+        <v>821.97700389063</v>
       </c>
       <c r="R5">
-        <v>10005.7597234267</v>
+        <v>7397.79303501567</v>
       </c>
       <c r="S5">
-        <v>0.09757821678964725</v>
+        <v>0.09127955290037257</v>
       </c>
       <c r="T5">
-        <v>0.09757821678964723</v>
+        <v>0.09127955290037258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>294.28833</v>
       </c>
       <c r="I6">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J6">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N6">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O6">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P6">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q6">
-        <v>1153.621959735793</v>
+        <v>1080.684297477867</v>
       </c>
       <c r="R6">
-        <v>10382.59763762214</v>
+        <v>9726.158677300798</v>
       </c>
       <c r="S6">
-        <v>0.1012532172596094</v>
+        <v>0.1200086851983979</v>
       </c>
       <c r="T6">
-        <v>0.1012532172596094</v>
+        <v>0.1200086851983979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>294.28833</v>
       </c>
       <c r="I7">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J7">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.709383</v>
       </c>
       <c r="O7">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P7">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q7">
         <v>382.8816409333766</v>
@@ -883,10 +883,10 @@
         <v>3445.934768400389</v>
       </c>
       <c r="S7">
-        <v>0.03360546117119834</v>
+        <v>0.0425185435027205</v>
       </c>
       <c r="T7">
-        <v>0.03360546117119834</v>
+        <v>0.0425185435027205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>294.28833</v>
       </c>
       <c r="I8">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J8">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N8">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O8">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P8">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q8">
-        <v>631.0055164842333</v>
+        <v>392.5804033290767</v>
       </c>
       <c r="R8">
-        <v>5679.049648358099</v>
+        <v>3533.22362996169</v>
       </c>
       <c r="S8">
-        <v>0.05538325455179678</v>
+        <v>0.04359557934554347</v>
       </c>
       <c r="T8">
-        <v>0.05538325455179679</v>
+        <v>0.04359557934554346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>294.28833</v>
       </c>
       <c r="I9">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J9">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N9">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O9">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P9">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q9">
-        <v>4942.419407020993</v>
+        <v>4025.419063458006</v>
       </c>
       <c r="R9">
-        <v>44481.77466318894</v>
+        <v>36228.77157112206</v>
       </c>
       <c r="S9">
-        <v>0.4337953709912197</v>
+        <v>0.4470179221680193</v>
       </c>
       <c r="T9">
-        <v>0.4337953709912197</v>
+        <v>0.4470179221680193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H10">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I10">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J10">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N10">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O10">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P10">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q10">
-        <v>87.82325404796799</v>
+        <v>43.14903221688889</v>
       </c>
       <c r="R10">
-        <v>790.409286431712</v>
+        <v>388.341289952</v>
       </c>
       <c r="S10">
-        <v>0.007708233141298158</v>
+        <v>0.004791647880900391</v>
       </c>
       <c r="T10">
-        <v>0.00770823314129816</v>
+        <v>0.004791647880900391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H11">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I11">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J11">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.709383</v>
       </c>
       <c r="O11">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P11">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q11">
-        <v>29.148120264368</v>
+        <v>15.28751023628889</v>
       </c>
       <c r="R11">
-        <v>262.333082379312</v>
+        <v>137.5875921266</v>
       </c>
       <c r="S11">
-        <v>0.002558325913380846</v>
+        <v>0.001697659536365803</v>
       </c>
       <c r="T11">
-        <v>0.002558325913380847</v>
+        <v>0.001697659536365803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H12">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I12">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J12">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N12">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O12">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P12">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q12">
-        <v>48.03736381072</v>
+        <v>15.67475766095556</v>
       </c>
       <c r="R12">
-        <v>432.33627429648</v>
+        <v>141.0728189486</v>
       </c>
       <c r="S12">
-        <v>0.004216231837004633</v>
+        <v>0.001740662894875936</v>
       </c>
       <c r="T12">
-        <v>0.004216231837004634</v>
+        <v>0.001740662894875936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H13">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I13">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J13">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N13">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O13">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P13">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q13">
-        <v>376.257881996128</v>
+        <v>160.7249566418222</v>
       </c>
       <c r="R13">
-        <v>3386.320937965152</v>
+        <v>1446.5246097764</v>
       </c>
       <c r="S13">
-        <v>0.03302409489510724</v>
+        <v>0.01784831219457007</v>
       </c>
       <c r="T13">
-        <v>0.03302409489510724</v>
+        <v>0.01784831219457007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H14">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I14">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J14">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.76011933333333</v>
+        <v>11.01658666666667</v>
       </c>
       <c r="N14">
-        <v>35.280358</v>
+        <v>33.04976</v>
       </c>
       <c r="O14">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="P14">
-        <v>0.1622550713151862</v>
+        <v>0.1837409300120545</v>
       </c>
       <c r="Q14">
-        <v>347.7009269419032</v>
+        <v>310.0909742772622</v>
       </c>
       <c r="R14">
-        <v>3129.308342477128</v>
+        <v>2790.81876849536</v>
       </c>
       <c r="S14">
-        <v>0.03051765545888105</v>
+        <v>0.03443522794006973</v>
       </c>
       <c r="T14">
-        <v>0.03051765545888105</v>
+        <v>0.03443522794006973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H15">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I15">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J15">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.709383</v>
       </c>
       <c r="O15">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="P15">
-        <v>0.05385168636105759</v>
+        <v>0.06509859443116503</v>
       </c>
       <c r="Q15">
-        <v>115.4002837221142</v>
+        <v>109.8638532520542</v>
       </c>
       <c r="R15">
-        <v>1038.602553499028</v>
+        <v>988.7746792684879</v>
       </c>
       <c r="S15">
-        <v>0.01012866468163614</v>
+        <v>0.01220024813017031</v>
       </c>
       <c r="T15">
-        <v>0.01012866468163614</v>
+        <v>0.01220024813017031</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H16">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I16">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J16">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.432523333333333</v>
+        <v>4.001997666666667</v>
       </c>
       <c r="N16">
-        <v>19.29757</v>
+        <v>12.005993</v>
       </c>
       <c r="O16">
-        <v>0.08874990997993268</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="P16">
-        <v>0.08874990997993269</v>
+        <v>0.06674760480978428</v>
       </c>
       <c r="Q16">
-        <v>190.1846624324578</v>
+        <v>112.6468109461609</v>
       </c>
       <c r="R16">
-        <v>1711.66196189212</v>
+        <v>1013.821298515448</v>
       </c>
       <c r="S16">
-        <v>0.01669247779327067</v>
+        <v>0.0125092922188204</v>
       </c>
       <c r="T16">
-        <v>0.01669247779327067</v>
+        <v>0.0125092922188204</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H17">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I17">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J17">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.38343933333334</v>
+        <v>41.03546066666667</v>
       </c>
       <c r="N17">
-        <v>151.150318</v>
+        <v>123.106382</v>
       </c>
       <c r="O17">
-        <v>0.6951433323438236</v>
+        <v>0.6844128707469962</v>
       </c>
       <c r="P17">
-        <v>0.6951433323438235</v>
+        <v>0.6844128707469963</v>
       </c>
       <c r="Q17">
-        <v>1489.642074384943</v>
+        <v>1155.051592935283</v>
       </c>
       <c r="R17">
-        <v>13406.77866946449</v>
+        <v>10395.46433641755</v>
       </c>
       <c r="S17">
-        <v>0.1307456496678494</v>
+        <v>0.1282670834840343</v>
       </c>
       <c r="T17">
-        <v>0.1307456496678494</v>
+        <v>0.1282670834840343</v>
       </c>
     </row>
   </sheetData>
